--- a/data-raw/bases_limpias/presidente.xlsx
+++ b/data-raw/bases_limpias/presidente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_limpias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1430887C-940B-4208-AFE7-0FFFD4B5BA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D70688-1700-4BE5-9E03-E1DA305B0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{C3C11483-BA70-4ECA-A88B-28A9529C282B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{C3C11483-BA70-4ECA-A88B-28A9529C282B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$144</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,9 +468,6 @@
     <t>Frente Amplio</t>
   </si>
   <si>
-    <t xml:space="preserve">Mujica, José </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lacalle Pou, Luis </t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>sexo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mujica Cordano, José </t>
   </si>
 </sst>
 </file>
@@ -539,9 +539,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -577,15 +577,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,23 +900,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D30A87-8B66-4671-B079-507711A42469}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O1048576"/>
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.9296875" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -934,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -966,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -989,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>104</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>105</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>110</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>111</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>111</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>112</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>114</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>121</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>121</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>131</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>141</v>
       </c>
@@ -3749,9 +3750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B124" t="s">
         <v>142</v>
@@ -3772,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -3795,9 +3796,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B126" t="s">
         <v>42</v>
@@ -3818,9 +3819,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -3832,18 +3833,18 @@
         <v>14018</v>
       </c>
       <c r="F127" t="s">
+        <v>145</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>146</v>
-      </c>
-      <c r="G127" t="s">
-        <v>7</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
-        <v>147</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -3855,7 +3856,7 @@
         <v>15766</v>
       </c>
       <c r="F128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G128" t="s">
         <v>7</v>
@@ -3864,9 +3865,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -3878,7 +3879,7 @@
         <v>17227</v>
       </c>
       <c r="F129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G129" t="s">
         <v>7</v>
@@ -3887,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>17381</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G130" t="s">
         <v>7</v>
@@ -3910,9 +3911,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -3924,7 +3925,7 @@
         <v>19054</v>
       </c>
       <c r="F131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G131" t="s">
         <v>7</v>
@@ -3933,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>24812</v>
       </c>
       <c r="F132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G132" t="s">
         <v>7</v>
@@ -3956,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>26359</v>
       </c>
       <c r="F133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G133" t="s">
         <v>7</v>
@@ -3979,9 +3980,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -3993,7 +3994,7 @@
         <v>26477</v>
       </c>
       <c r="F134" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G134" t="s">
         <v>7</v>
@@ -4002,9 +4003,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -4016,7 +4017,7 @@
         <v>32933</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G135" t="s">
         <v>7</v>
@@ -4025,9 +4026,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B136" t="s">
         <v>42</v>
@@ -4039,7 +4040,7 @@
         <v>34759</v>
       </c>
       <c r="F136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G136" t="s">
         <v>7</v>
@@ -4048,9 +4049,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -4062,7 +4063,7 @@
         <v>36071</v>
       </c>
       <c r="F137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G137" t="s">
         <v>7</v>
@@ -4071,9 +4072,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -4085,7 +4086,7 @@
         <v>36586</v>
       </c>
       <c r="F138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G138" t="s">
         <v>7</v>
@@ -4094,9 +4095,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -4108,7 +4109,7 @@
         <v>38412</v>
       </c>
       <c r="F139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G139" t="s">
         <v>7</v>
@@ -4117,9 +4118,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B140" t="s">
         <v>142</v>
@@ -4131,7 +4132,7 @@
         <v>40238</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G140" t="s">
         <v>7</v>
@@ -4140,9 +4141,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -4154,7 +4155,7 @@
         <v>42064</v>
       </c>
       <c r="F141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G141" t="s">
         <v>7</v>
@@ -4163,9 +4164,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
@@ -4177,7 +4178,7 @@
         <v>42991</v>
       </c>
       <c r="F142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G142" t="s">
         <v>7</v>
@@ -4186,9 +4187,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B143" t="s">
         <v>142</v>
@@ -4200,7 +4201,7 @@
         <v>43891</v>
       </c>
       <c r="F143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G143" t="s">
         <v>7</v>
@@ -4209,9 +4210,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B144" t="s">
         <v>42</v>
@@ -4223,7 +4224,7 @@
         <v>45717</v>
       </c>
       <c r="F144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G144" t="s">
         <v>7</v>
@@ -4233,7 +4234,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I144" xr:uid="{9EB080ED-E1CD-4189-9BED-08FF27218E86}"/>
+  <autoFilter ref="A1:I144" xr:uid="{9EB080ED-E1CD-4189-9BED-08FF27218E86}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Mujica, José"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data-raw/bases_limpias/presidente.xlsx
+++ b/data-raw/bases_limpias/presidente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_limpias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D70688-1700-4BE5-9E03-E1DA305B0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E056317-DC54-4854-A0A1-1BA3EF6B461D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{C3C11483-BA70-4ECA-A88B-28A9529C282B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C11483-BA70-4ECA-A88B-28A9529C282B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -900,11 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D30A87-8B66-4671-B079-507711A42469}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +943,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -967,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -990,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1634,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -2232,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>104</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>105</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>110</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>111</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>111</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>112</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>114</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>121</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>121</v>
       </c>
@@ -3198,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -3267,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>131</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -3704,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>141</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>143</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>146</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>150</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>153</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>156</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>157</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>159</v>
       </c>
@@ -4234,13 +4233,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I144" xr:uid="{9EB080ED-E1CD-4189-9BED-08FF27218E86}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Mujica, José"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I144" xr:uid="{9EB080ED-E1CD-4189-9BED-08FF27218E86}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data-raw/bases_limpias/presidente.xlsx
+++ b/data-raw/bases_limpias/presidente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_limpias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E056317-DC54-4854-A0A1-1BA3EF6B461D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B8B4EC-497D-4FA7-AAF6-93E80326F042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C11483-BA70-4ECA-A88B-28A9529C282B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{C3C11483-BA70-4ECA-A88B-28A9529C282B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$144</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="164">
   <si>
     <t>cargo</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bordaberry, Juan María </t>
-  </si>
-  <si>
-    <t>De Facto</t>
   </si>
   <si>
     <t xml:space="preserve">Demicheli, Alberto </t>
@@ -903,20 +900,20 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -934,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -966,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -989,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1104,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1127,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1150,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1173,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1219,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1265,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1311,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1334,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1357,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1380,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1403,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1426,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1449,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1472,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1495,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1518,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1541,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1564,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1587,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1610,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1656,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1679,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1702,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1725,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1748,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1817,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1840,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -1863,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -1886,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1909,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -1932,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -1978,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2001,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -2024,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -2047,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -2093,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -2116,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -2139,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -2162,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -2185,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -2208,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -2231,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2254,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2277,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -2300,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -2323,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -2346,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2369,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>104</v>
       </c>
@@ -2392,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -2415,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -2438,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -2461,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>105</v>
       </c>
@@ -2484,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -2507,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -2530,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -2553,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -2576,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -2599,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -2622,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -2645,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -2668,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>110</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>111</v>
       </c>
@@ -2714,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>111</v>
       </c>
@@ -2737,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -2760,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>112</v>
       </c>
@@ -2783,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -2806,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -2829,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -2852,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -2898,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>114</v>
       </c>
@@ -2921,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -2944,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -2967,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -2990,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -3013,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -3036,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -3059,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -3105,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -3128,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -3151,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>121</v>
       </c>
@@ -3174,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>121</v>
       </c>
@@ -3197,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -3220,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -3243,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -3266,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -3289,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -3312,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -3335,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -3358,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -3381,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -3404,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -3427,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -3450,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -3473,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3496,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>131</v>
       </c>
@@ -3519,13 +3516,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>131</v>
       </c>
-      <c r="B114" t="s">
-        <v>132</v>
-      </c>
       <c r="C114" s="3">
         <v>26872</v>
       </c>
@@ -3542,11 +3536,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>133</v>
-      </c>
-      <c r="B115" t="s">
         <v>132</v>
       </c>
       <c r="C115" s="3">
@@ -3565,12 +3556,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>134</v>
-      </c>
-      <c r="B116" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C116" s="3">
         <v>28004</v>
@@ -3588,12 +3576,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>135</v>
-      </c>
-      <c r="B117" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C117" s="3">
         <v>29830</v>
@@ -3611,12 +3596,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" t="s">
         <v>136</v>
-      </c>
-      <c r="B118" t="s">
-        <v>137</v>
       </c>
       <c r="C118" s="3">
         <v>31090</v>
@@ -3634,9 +3619,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -3657,9 +3642,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B120" t="s">
         <v>42</v>
@@ -3680,9 +3665,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
@@ -3703,9 +3688,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -3726,12 +3711,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" t="s">
         <v>141</v>
-      </c>
-      <c r="B123" t="s">
-        <v>142</v>
       </c>
       <c r="C123" s="3">
         <v>38412</v>
@@ -3749,12 +3734,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C124" s="3">
         <v>40238</v>
@@ -3772,12 +3757,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" t="s">
         <v>141</v>
-      </c>
-      <c r="B125" t="s">
-        <v>142</v>
       </c>
       <c r="C125" s="3">
         <v>42064</v>
@@ -3795,9 +3780,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126" t="s">
         <v>42</v>
@@ -3818,9 +3803,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -3832,18 +3817,18 @@
         <v>14018</v>
       </c>
       <c r="F127" t="s">
+        <v>144</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
         <v>145</v>
-      </c>
-      <c r="G127" t="s">
-        <v>7</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>146</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -3855,7 +3840,7 @@
         <v>15766</v>
       </c>
       <c r="F128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G128" t="s">
         <v>7</v>
@@ -3864,9 +3849,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -3878,7 +3863,7 @@
         <v>17227</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G129" t="s">
         <v>7</v>
@@ -3887,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -3901,7 +3886,7 @@
         <v>17381</v>
       </c>
       <c r="F130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G130" t="s">
         <v>7</v>
@@ -3910,9 +3895,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -3924,7 +3909,7 @@
         <v>19054</v>
       </c>
       <c r="F131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G131" t="s">
         <v>7</v>
@@ -3933,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3947,7 +3932,7 @@
         <v>24812</v>
       </c>
       <c r="F132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G132" t="s">
         <v>7</v>
@@ -3956,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -3970,7 +3955,7 @@
         <v>26359</v>
       </c>
       <c r="F133" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G133" t="s">
         <v>7</v>
@@ -3979,9 +3964,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -3993,7 +3978,7 @@
         <v>26477</v>
       </c>
       <c r="F134" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G134" t="s">
         <v>7</v>
@@ -4002,9 +3987,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -4016,7 +4001,7 @@
         <v>32933</v>
       </c>
       <c r="F135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G135" t="s">
         <v>7</v>
@@ -4025,9 +4010,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
         <v>42</v>
@@ -4039,7 +4024,7 @@
         <v>34759</v>
       </c>
       <c r="F136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G136" t="s">
         <v>7</v>
@@ -4048,9 +4033,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -4062,7 +4047,7 @@
         <v>36071</v>
       </c>
       <c r="F137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G137" t="s">
         <v>7</v>
@@ -4071,9 +4056,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -4085,7 +4070,7 @@
         <v>36586</v>
       </c>
       <c r="F138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G138" t="s">
         <v>7</v>
@@ -4094,9 +4079,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -4108,7 +4093,7 @@
         <v>38412</v>
       </c>
       <c r="F139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G139" t="s">
         <v>7</v>
@@ -4117,12 +4102,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" s="3">
         <v>38412</v>
@@ -4131,7 +4116,7 @@
         <v>40238</v>
       </c>
       <c r="F140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G140" t="s">
         <v>7</v>
@@ -4140,12 +4125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C141" s="3">
         <v>40238</v>
@@ -4154,7 +4139,7 @@
         <v>42064</v>
       </c>
       <c r="F141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G141" t="s">
         <v>7</v>
@@ -4163,12 +4148,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C142" s="3">
         <v>42064</v>
@@ -4177,7 +4162,7 @@
         <v>42991</v>
       </c>
       <c r="F142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G142" t="s">
         <v>7</v>
@@ -4186,12 +4171,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143" s="3">
         <v>42991</v>
@@ -4200,7 +4185,7 @@
         <v>43891</v>
       </c>
       <c r="F143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G143" t="s">
         <v>7</v>
@@ -4209,9 +4194,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B144" t="s">
         <v>42</v>
@@ -4223,7 +4208,7 @@
         <v>45717</v>
       </c>
       <c r="F144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G144" t="s">
         <v>7</v>
